--- a/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
+++ b/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
@@ -10,7 +10,9 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Table 4.8.A" sheetId="3" r:id="rId2"/>
     <sheet name="Table 4.8.B" sheetId="2" r:id="rId3"/>
-    <sheet name="BECF" sheetId="4" r:id="rId4"/>
+    <sheet name="BECF-pre-ret" sheetId="4" r:id="rId4"/>
+    <sheet name="BECF-pre-nonret" sheetId="5" r:id="rId5"/>
+    <sheet name="BECF-new" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>Source:</t>
   </si>
@@ -194,15 +196,6 @@
   </si>
   <si>
     <t>natural gas peaker</t>
-  </si>
-  <si>
-    <t>preexisting</t>
-  </si>
-  <si>
-    <t>preexisting nonretiring (not used in U.S. dataset)</t>
-  </si>
-  <si>
-    <t>newly built</t>
   </si>
   <si>
     <t>Lazard</t>
@@ -417,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -445,9 +438,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -739,7 +729,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -758,7 +748,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -796,12 +786,12 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -811,67 +801,67 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -899,17 +889,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -918,17 +908,17 @@
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="18" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -960,17 +950,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -1031,17 +1021,17 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1392,17 +1382,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -1753,17 +1743,17 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1794,17 +1784,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1836,17 +1826,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -1907,17 +1897,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -2268,17 +2258,17 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -2629,17 +2619,17 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2658,30 +2648,124 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1" s="10">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1" s="10">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1" s="10">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1" s="10">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1" s="10">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1" s="10">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1" s="10">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1" s="10">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1" s="10">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1" s="10">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1" s="10">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1" s="10">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2689,15 +2773,144 @@
         <f>'Table 4.8.A'!B6</f>
         <v>0.61</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="14">
-        <f>B2*1.1</f>
-        <v>0.67100000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="11">
+        <f>$B2</f>
+        <v>0.61</v>
+      </c>
+      <c r="D2" s="11">
+        <f t="shared" ref="D2:AJ10" si="0">$B2</f>
+        <v>0.61</v>
+      </c>
+      <c r="E2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="F2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="G2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="H2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="K2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="L2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="M2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="N2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="O2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="P2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="Q2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="R2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="S2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="T2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="U2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="V2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="W2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="X2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="Y2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="Z2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="AA2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="AB2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="AC2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="AD2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="AE2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="AF2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="AG2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="AH2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="AI2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="AJ2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -2705,15 +2918,144 @@
         <f>'Table 4.8.A'!C6</f>
         <v>0.48299999999999998</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14">
-        <f>B3*1.1</f>
-        <v>0.53129999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="11">
+        <f t="shared" ref="C3:R12" si="1">$B3</f>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="L3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="M3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="N3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="O3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="P3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="R3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="S3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="T3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="U3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="V3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="W3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="X3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="Y3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="Z3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AA3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AB3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AC3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AD3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AE3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AF3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AG3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AH3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AI3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AJ3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2721,15 +3063,144 @@
         <f>'Table 4.8.B'!B5</f>
         <v>0.91700000000000004</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <f>B4</f>
+      <c r="C4" s="11">
+        <f t="shared" si="1"/>
         <v>0.91700000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="Q4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="R4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="S4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="T4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="U4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="V4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="W4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="X4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="Y4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AA4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AB4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AC4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AD4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AE4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AF4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AG4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AH4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AI4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AJ4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2737,15 +3208,144 @@
         <f>'Table 4.8.B'!C5</f>
         <v>0.373</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" s="11">
+        <f t="shared" si="1"/>
+        <v>0.373</v>
       </c>
       <c r="D5" s="11">
-        <f>B5*1.1</f>
-        <v>0.41030000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="Q5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="AB5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="AC5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="AD5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="AE5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="AF5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="AG5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="AH5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="AI5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+      <c r="AJ5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2753,15 +3353,144 @@
         <f>'Table 4.8.B'!D5</f>
         <v>0.34</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" s="11">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
       </c>
       <c r="D6" s="11">
-        <f>AVERAGE(0.55,0.3)</f>
-        <v>0.42500000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="R6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="S6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="T6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="V6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="W6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="X6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="Y6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="AA6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="AB6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="AC6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="AD6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="AE6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="AF6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="AG6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="AH6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="AI6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="AJ6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -2769,15 +3498,144 @@
         <f>'Table 4.8.B'!E5</f>
         <v>0.25900000000000001</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.25900000000000001</v>
       </c>
       <c r="D7" s="11">
-        <f>AVERAGE(0.32,0.3)</f>
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="R7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="S7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="T7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="V7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="W7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="X7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="Y7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AA7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AB7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AC7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AD7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AE7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AF7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AG7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AH7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AI7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AJ7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2785,15 +3643,144 @@
         <f>'Table 4.8.B'!F5</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" s="11">
+        <f t="shared" si="1"/>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D8" s="11">
-        <f>AVERAGE(0.85,0.52)</f>
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Q8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="S8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="T8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="V8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="W8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="X8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Y8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AA8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AB8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AC8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AD8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AE8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AF8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AG8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AH8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AI8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AJ8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2801,15 +3788,144 @@
         <f>'Table 4.8.B'!H5</f>
         <v>0.58899999999999997</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D9" s="11">
-        <f>B9*1.1</f>
-        <v>0.64790000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="R9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="S9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="T9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="W9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="X9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="Y9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AA9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AB9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AC9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AD9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AE9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AF9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AG9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AH9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AI9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AJ9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2817,15 +3933,144 @@
         <f>'Table 4.8.B'!I5</f>
         <v>0.74</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" s="11">
+        <f t="shared" si="1"/>
+        <v>0.74</v>
       </c>
       <c r="D10" s="11">
-        <f>B10*1.1</f>
-        <v>0.81400000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" ref="D10:AJ12" si="2">$B10</f>
+        <v>0.74</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="Q10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="S10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="T10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="V10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="W10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="X10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="Y10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="AA10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="AB10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="AC10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="AD10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="AE10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="AF10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="AG10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="AH10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="AI10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="AJ10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2833,15 +4078,144 @@
         <f>AVERAGE('Table 4.8.A'!G6:I6)</f>
         <v>5.000000000000001E-2</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" s="11">
+        <f t="shared" si="1"/>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" ref="D11:D12" si="0">B11*1.1</f>
-        <v>5.5000000000000014E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="S11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="T11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="U11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="V11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="W11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="X11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="Y11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="AA11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="AB11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="AC11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="AD11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="AE11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="AF11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="AG11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="AH11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="AI11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="AJ11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2849,11 +4223,3573 @@
         <f>AVERAGE('Table 4.8.A'!D6:F6)</f>
         <v>8.0333333333333326E-2</v>
       </c>
+      <c r="C12" s="11">
+        <f t="shared" si="1"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="S12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="T12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="Y12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="AA12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="AB12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="AC12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="AD12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="AE12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="AF12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="AG12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="AH12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="AI12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+      <c r="AJ12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0333333333333326E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:AJ12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1" s="10">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1" s="10">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1" s="10">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1" s="10">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1" s="10">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1" s="10">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1" s="10">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1" s="10">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1" s="10">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1" s="10">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1" s="10">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1" s="10">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>$B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:AJ10" si="0">$B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:R12" si="1">$B3</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="D10:AJ12" si="2">$B10</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:AJ12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1" s="10">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1" s="10">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1" s="10">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1" s="10">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1" s="10">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1" s="10">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1" s="10">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1" s="10">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1" s="10">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1" s="10">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1" s="10">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1" s="10">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="11">
+        <f>'BECF-pre-ret'!B2*1.1</f>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="C2" s="11">
+        <f>$B2</f>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="D2" s="11">
+        <f t="shared" ref="D2:AJ10" si="0">$B2</f>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="F2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="G2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="H2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="K2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="L2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="M2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="N2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="O2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="P2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="Q2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="R2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="S2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="T2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="U2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="V2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="W2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="X2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="Y2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="Z2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AA2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AB2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AC2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AD2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AE2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AF2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AG2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AH2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AI2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AJ2" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="11">
+        <f>'BECF-pre-ret'!B3*1.1</f>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="C3" s="11">
+        <f t="shared" ref="C3:R12" si="1">$B3</f>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="L3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="M3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="N3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="O3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="P3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="R3" s="11">
+        <f t="shared" si="1"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="S3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="T3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="U3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="V3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="W3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="X3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="Y3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="Z3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="AA3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="AB3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="AC3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="AD3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="AE3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="AF3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="AG3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="AH3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="AI3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="AJ3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53129999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="11">
+        <f>'BECF-pre-ret'!B4</f>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="C4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="Q4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="R4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="S4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="T4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="U4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="V4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="W4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="X4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="Y4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AA4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AB4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AC4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AD4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AE4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AF4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AG4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AH4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AI4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AJ4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="11">
+        <f>'BECF-pre-ret'!B5*1.1</f>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" si="1"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="Q5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="AB5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="AC5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="AD5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="AE5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="AF5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="AG5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="AH5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="AI5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+      <c r="AJ5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.41030000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="11">
+        <f>AVERAGE(0.55,0.3)</f>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" si="1"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="R6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="S6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="T6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="V6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="W6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="X6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="Y6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="AA6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="AB6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="AC6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="AD6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="AE6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="AF6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="AG6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="AH6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="AI6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="AJ6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="11">
+        <f>AVERAGE(0.32,0.3)</f>
+        <v>0.31</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="R7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="S7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="T7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="V7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="W7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="X7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="Y7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="AA7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="AB7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="AC7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="AD7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="AE7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="AF7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="AG7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="AH7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="AI7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="AJ7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="11">
+        <f>AVERAGE(0.85,0.52)</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="1"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="Q8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="S8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="T8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="V8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="W8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="X8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="Y8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AA8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AB8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AC8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AD8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AE8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AF8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AG8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AH8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AI8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AJ8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="11">
+        <f>'BECF-pre-ret'!B9*1.1</f>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="R9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="S9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="T9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="W9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="X9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="Y9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="AA9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="AB9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="AC9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="AD9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="AE9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="AF9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="AG9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="AH9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="AI9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="AJ9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.64790000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="11">
+        <f>'BECF-pre-ret'!B10*1.1</f>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="1"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" ref="D10:AJ12" si="2">$B10</f>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="Q10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="S10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="T10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="V10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="W10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="X10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="Y10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="AA10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="AB10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="AC10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="AD10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="AE10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="AF10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="AG10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="AH10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="AI10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="AJ10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.81400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11">
+        <f>'BECF-pre-ret'!B11*1.1</f>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="1"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="S11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="T11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="U11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="V11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="W11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="X11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="Y11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="AA11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="AB11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="AC11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="AD11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="AE11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="AF11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="AG11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="AH11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="AI11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+      <c r="AJ11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="11">
+        <f>'BECF-pre-ret'!B12*1.1</f>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" si="1"/>
+        <v>8.8366666666666663E-2</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="S12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="T12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="Y12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="AA12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="AB12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="AC12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="AD12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="AE12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="AF12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="AG12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="AH12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="AI12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8366666666666663E-2</v>
+      </c>
+      <c r="AJ12" s="11">
+        <f t="shared" si="2"/>
         <v>8.8366666666666663E-2</v>
       </c>
     </row>
